--- a/Project/design/TrackModelTestPlan.xlsx
+++ b/Project/design/TrackModelTestPlan.xlsx
@@ -428,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -536,5 +536,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>